--- a/delta_sync_report.xlsx
+++ b/delta_sync_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="58">
   <si>
     <t>Table Name</t>
   </si>
@@ -48,6 +48,144 @@
   </si>
   <si>
     <t>2026-01-28 20:02:44.008</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:03:43.976</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:04:43.963</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:05:43.928</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:06:43.947</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:07:43.961</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:08:43.929</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:09:43.96</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:10:43.961</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:11:43.945</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:12:43.961</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:17:26.288</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2026-01-29 12:17:09.99</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>gnmis4</t>
+  </si>
+  <si>
+    <t>GNMIS_SRV_Admin</t>
+  </si>
+  <si>
+    <t>1900-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:17:26.352</t>
+  </si>
+  <si>
+    <t>2026-01-29 12:17:15.8</t>
+  </si>
+  <si>
+    <t>2026-01-29 11:12:20.777</t>
+  </si>
+  <si>
+    <t>GNMIS\GNMIS_SRV_Admin3</t>
+  </si>
+  <si>
+    <t>2026-01-29 11:13:50.683</t>
+  </si>
+  <si>
+    <t>2026-01-29 11:14:03.107</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:17:26.354</t>
+  </si>
+  <si>
+    <t>2026-01-29 11:57:44.14</t>
+  </si>
+  <si>
+    <t>2026-01-29 11:57:52.937</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:17:26.355</t>
+  </si>
+  <si>
+    <t>2026-01-29 11:59:07.67</t>
+  </si>
+  <si>
+    <t>2026-01-29 11:59:16.17</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:18:26.236</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:18:26.238</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:19:26.215</t>
+  </si>
+  <si>
+    <t>2026-01-29 12:18:49.67</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:19:26.244</t>
+  </si>
+  <si>
+    <t>2026-01-29 12:18:58.477</t>
+  </si>
+  <si>
+    <t>GNMIS\GNMIS_SRV_Admin4</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:19:26.245</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:19:26.246</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:20:26.219</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:20:26.22</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:21:26.25</t>
+  </si>
+  <si>
+    <t>2026-01-28 20:21:26.251</t>
   </si>
 </sst>
 </file>
@@ -92,11 +230,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.62109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.55859375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.13671875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -196,6 +340,2812 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="n" s="0">
+        <v>2391.0</v>
+      </c>
+      <c r="R18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="n" s="0">
+        <v>2384.0</v>
+      </c>
+      <c r="R19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="n" s="0">
+        <v>2385.0</v>
+      </c>
+      <c r="R20" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="O21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="n" s="0">
+        <v>2386.0</v>
+      </c>
+      <c r="R21" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="O22" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="n" s="0">
+        <v>2387.0</v>
+      </c>
+      <c r="R22" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q23" t="n" s="0">
+        <v>2388.0</v>
+      </c>
+      <c r="R23" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T23" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="n" s="0">
+        <v>2389.0</v>
+      </c>
+      <c r="R24" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T24" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I25" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="O25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="n" s="0">
+        <v>2390.0</v>
+      </c>
+      <c r="R25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T25" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I26" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O26" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="n" s="0">
+        <v>2384.0</v>
+      </c>
+      <c r="R26" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T26" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I27" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="n" s="0">
+        <v>2385.0</v>
+      </c>
+      <c r="R27" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T27" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="O28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q28" t="n" s="0">
+        <v>2386.0</v>
+      </c>
+      <c r="R28" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T28" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I29" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="O29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="n" s="0">
+        <v>2387.0</v>
+      </c>
+      <c r="R29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T29" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I30" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="n" s="0">
+        <v>2388.0</v>
+      </c>
+      <c r="R30" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S30" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T30" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="O31" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P31" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="n" s="0">
+        <v>2389.0</v>
+      </c>
+      <c r="R31" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S31" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T31" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I32" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="O32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="n" s="0">
+        <v>2390.0</v>
+      </c>
+      <c r="R32" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T32" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I33" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O33" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="n" s="0">
+        <v>2391.0</v>
+      </c>
+      <c r="R33" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S33" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T33" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I34" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="O34" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P34" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="n" s="0">
+        <v>2392.0</v>
+      </c>
+      <c r="R34" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S34" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T34" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I35" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O35" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P35" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="n" s="0">
+        <v>2384.0</v>
+      </c>
+      <c r="R35" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S35" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T35" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I36" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O36" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="n" s="0">
+        <v>2385.0</v>
+      </c>
+      <c r="R36" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S36" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T36" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I37" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="O37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P37" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q37" t="n" s="0">
+        <v>2386.0</v>
+      </c>
+      <c r="R37" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S37" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T37" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I38" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="O38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="n" s="0">
+        <v>2387.0</v>
+      </c>
+      <c r="R38" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S38" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T38" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I39" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q39" t="n" s="0">
+        <v>2388.0</v>
+      </c>
+      <c r="R39" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S39" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T39" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I40" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="O40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P40" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="n" s="0">
+        <v>2389.0</v>
+      </c>
+      <c r="R40" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S40" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T40" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I41" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="O41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P41" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="n" s="0">
+        <v>2390.0</v>
+      </c>
+      <c r="R41" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S41" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T41" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I42" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P42" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q42" t="n" s="0">
+        <v>2391.0</v>
+      </c>
+      <c r="R42" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S42" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T42" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I43" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O43" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P43" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="n" s="0">
+        <v>2384.0</v>
+      </c>
+      <c r="R43" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S43" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T43" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I44" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q44" t="n" s="0">
+        <v>2385.0</v>
+      </c>
+      <c r="R44" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S44" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T44" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I45" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="O45" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P45" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="n" s="0">
+        <v>2386.0</v>
+      </c>
+      <c r="R45" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S45" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T45" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I46" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="O46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q46" t="n" s="0">
+        <v>2387.0</v>
+      </c>
+      <c r="R46" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S46" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T46" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I47" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O47" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P47" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q47" t="n" s="0">
+        <v>2388.0</v>
+      </c>
+      <c r="R47" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S47" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T47" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I48" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="O48" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q48" t="n" s="0">
+        <v>2389.0</v>
+      </c>
+      <c r="R48" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T48" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I49" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="O49" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q49" t="n" s="0">
+        <v>2390.0</v>
+      </c>
+      <c r="R49" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T49" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I50" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O50" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P50" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="n" s="0">
+        <v>2391.0</v>
+      </c>
+      <c r="R50" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S50" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T50" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I51" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="O51" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P51" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="n" s="0">
+        <v>2392.0</v>
+      </c>
+      <c r="R51" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S51" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T51" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I52" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K52" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O52" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P52" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q52" t="n" s="0">
+        <v>2384.0</v>
+      </c>
+      <c r="R52" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S52" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T52" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I53" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="O53" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P53" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="n" s="0">
+        <v>2385.0</v>
+      </c>
+      <c r="R53" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S53" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T53" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I54" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M54" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="O54" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P54" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q54" t="n" s="0">
+        <v>2386.0</v>
+      </c>
+      <c r="R54" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S54" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T54" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I55" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N55" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="O55" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P55" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q55" t="n" s="0">
+        <v>2387.0</v>
+      </c>
+      <c r="R55" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S55" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T55" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I56" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M56" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O56" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P56" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q56" t="n" s="0">
+        <v>2388.0</v>
+      </c>
+      <c r="R56" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S56" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T56" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I57" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M57" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="O57" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q57" t="n" s="0">
+        <v>2389.0</v>
+      </c>
+      <c r="R57" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T57" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I58" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="O58" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P58" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q58" t="n" s="0">
+        <v>2390.0</v>
+      </c>
+      <c r="R58" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S58" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T58" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I59" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O59" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P59" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q59" t="n" s="0">
+        <v>2391.0</v>
+      </c>
+      <c r="R59" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S59" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T59" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I60" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="O60" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="P60" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Q60" t="n" s="0">
+        <v>2392.0</v>
+      </c>
+      <c r="R60" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="S60" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="T60" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/delta_sync_report.xlsx
+++ b/delta_sync_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>hotlink_audit</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>GNMIS\GNMIS_SRV_Admin</t>
+  </si>
+  <si>
+    <t>2026-01-29 15:48:32.677</t>
+  </si>
+  <si>
+    <t>2026-01-29 15:48:50.377</t>
+  </si>
+  <si>
+    <t>2026-01-29 15:49:32.548</t>
+  </si>
+  <si>
+    <t>2026-01-29 15:48:57.277</t>
+  </si>
+  <si>
+    <t>GNMIS\GNMIS_SRV_Admin4</t>
   </si>
 </sst>
 </file>
@@ -104,32 +119,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.62109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.49609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.13671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="0.9296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="0.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="0.9296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.13671875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="3.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.9296875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="0.9296875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="6.6953125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="0.9296875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="0.9296875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="21.13671875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="23.21484375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="19.13671875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="4.9296875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="1.94921875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="19.13671875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="6.85546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.62109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.49609375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="0.9296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="0.9296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="0.9296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="3.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="2.9296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="0.9296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.6953125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="0.9296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="0.9296875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.21484375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.13671875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="4.9296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="1.94921875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.13671875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -256,6 +271,192 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="n" s="0">
+        <v>2395.0</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="n" s="0">
+        <v>2384.0</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n" s="0">
+        <v>2395.0</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
